--- a/Doc/New_Iti.csvの値.xlsx
+++ b/Doc/New_Iti.csvの値.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C40FA7A-3F71-428B-B05F-83D1EA58DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C4BC99-3E87-4ABF-988E-9DCC716CA160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="15" windowWidth="10395" windowHeight="10335" xr2:uid="{BDB1FE8F-0A2C-4545-8D2D-09416135A458}"/>
+    <workbookView xWindow="870" yWindow="165" windowWidth="16095" windowHeight="14970" xr2:uid="{BDB1FE8F-0A2C-4545-8D2D-09416135A458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>n=0</t>
     <phoneticPr fontId="1"/>
@@ -50,18 +50,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>d2v2の場合</t>
+    <t>New_Iti.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d2v1の場合</t>
     <rPh sb="5" eb="7">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>n=2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>New_Iti.csv</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,11 +422,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04A0616-D924-446D-ADEB-144E4C3195D3}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -440,7 +434,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -453,18 +447,27 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -474,13 +477,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -495,13 +507,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -531,13 +543,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -557,105 +569,6 @@
         <v>168</v>
       </c>
       <c r="J13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D17">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>168</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D18">
-        <v>82</v>
-      </c>
-      <c r="E18">
-        <v>168</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-      <c r="H18">
-        <v>82</v>
-      </c>
-      <c r="I18">
-        <v>168</v>
-      </c>
-      <c r="J18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D21">
-        <v>82</v>
-      </c>
-      <c r="E21">
-        <v>168</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D22">
-        <v>82</v>
-      </c>
-      <c r="E22">
-        <v>168</v>
-      </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>82</v>
-      </c>
-      <c r="I22">
-        <v>168</v>
-      </c>
-      <c r="J22">
         <v>50</v>
       </c>
     </row>
